--- a/Шаблоны/Scenar7.xlsx
+++ b/Шаблоны/Scenar7.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB69A0A-3942-4E15-8F3B-68DDF15A4023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11565" yWindow="6143" windowWidth="15270" windowHeight="9202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -82,18 +80,545 @@
   </si>
   <si>
     <t>Сценарий №7 Вывод в ремонт трансформатора</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Оборудования</t>
+  </si>
+  <si>
+    <t>Тип Действия</t>
+  </si>
+  <si>
+    <t>Доп Свойство</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Вид операции</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>Проверочная</t>
+  </si>
+  <si>
+    <t>ПОТ</t>
+  </si>
+  <si>
+    <t>Критическая</t>
+  </si>
+  <si>
+    <t>Проверить работу видеорегистратора. Взять видеорегистратор в руки, включить его, на экране увидеть изображение, повесить на грудь.</t>
+  </si>
+  <si>
+    <t>Подойти к СВ 110. Проверить по указателю положения отключенное состояние СВ 110.</t>
+  </si>
+  <si>
+    <t>Подойти к СР-1 110. Проверить включенное состояние СР-1 110.</t>
+  </si>
+  <si>
+    <t>Включить автоматы цепей управления ЭМВ, ЭМО1 и ЭМО2 СВ 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение СВ 110 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>По амперметру убедиться в отсутствии нагрузки на СВ 110.</t>
+  </si>
+  <si>
+    <t>Ключом управления включить выключатель СВ 110.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение СВ 110 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>По амперметру убедиться в наличии нагрузки на СВ 110.</t>
+  </si>
+  <si>
+    <t>Подойти к СВ 110. Проверить по указателю положения включенное состояние СВ 110.</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить выключатель В 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 110 Алексеевская по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 110 Алексеевская вывесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Подойти к В 110 Алексеевская. Проверить по указателю положения отключенное состояние В 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Отключить автоматы цепей управления ЭМВ, ЭМО1 и ЭМО2 В 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>На автоматы цепей управления ЭМВ, ЭМО1 и ЭМО2 В 110 Алексеевская вывесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Ключом перевести цепи напряжения с ТН-2 110 на ТН-1 110.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие сигнала неисправности цепей напряжения.</t>
+  </si>
+  <si>
+    <t>Проверить визуально целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Надеть диэлектрические перчатки.</t>
+  </si>
+  <si>
+    <t>Отключить автомат звезды РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>На автомат звезды РЗА ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат треугольника РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>На автомат треугольника РЗА ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат звезды учета ТН-2 110 .</t>
+  </si>
+  <si>
+    <t>На автомат звезды учета ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить рубильник звезды РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника звезды РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>Отключить рубильник треугольника РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника треугольника РЗА ТН-2 110.</t>
+  </si>
+  <si>
+    <t>На привод рубильника треугольника РЗА ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить рубильник звезды учета ТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника звезды учета ТН-2 110.</t>
+  </si>
+  <si>
+    <t>На привод рубильника звезды учета ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневые изоляторы РТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 110 Алексеевская по указателю положения.</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневые изоляторы ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить разъединитель ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ЛР 110 Алексеевская по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления разъединителем ЛР 110 Алексеевская повесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить разъединитель РТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение РТН-2 110 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления разъединителем РТН-2 110 повесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение РТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение РП-2 110.</t>
+  </si>
+  <si>
+    <t>Отключить автомат питания привода ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>На автомат питания привода ЛР 110 Алексеевская вывесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Отключить автомат питания привода РТН-2 110.</t>
+  </si>
+  <si>
+    <t>На автомат питания привода РТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работа на линии».</t>
+  </si>
+  <si>
+    <t>Проверить целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 110 кВ прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 110 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на ЛР 110 Алексеевская в сторону линии. (в течении времени не менее 5 сек.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Осмотреть опорно- стержневую изоляцию ЛР 110 Алексеевская </t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ привода ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Включить ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>На привод ЛР 110 Алексеевская вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ в блокировочный замок ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Отключить ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Визуально проверить отключенное состояние ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 Т2</t>
+  </si>
+  <si>
+    <t>Выкатить тележку В 6 Т2 в контрольное положение</t>
+  </si>
+  <si>
+    <t>Выйти, закрыть дверь ЗРУ 6 на ключ.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное состояние ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное состояние ЗНЛ ЛР 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное состояние РТН-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное состояние РП-2 110.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное состояние ЗНШ РП-2 110.</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневую изоляцию РПГ 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Включить РПГ 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включённое состояние РПГ 110 Алексеевская.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 6 УПГ, ШР 6 УПГ, ЗНВ ШР 6 УПГ, ЗНВ В 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ШР 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ЗНВ ШР 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение ЗНВ В 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Включить автомат цепей управления В 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Включить ШР 6 УПГ</t>
+  </si>
+  <si>
+    <t>Визуально проверить включённое состояние ШР 6 УПГ</t>
+  </si>
+  <si>
+    <t>Включить В 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Проверить по механическому указателю включенное положение В 6 УПГ.</t>
+  </si>
+  <si>
+    <t>Выйти, закрыть дверь КРУН-6-ПГ на ключ.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение автоматов цепей управления В 6 Т2.</t>
+  </si>
+  <si>
+    <t>Основная операция</t>
+  </si>
+  <si>
+    <t>Критично</t>
+  </si>
+  <si>
+    <t>Проверочная операция</t>
+  </si>
+  <si>
+    <t>Нарушение ПОТ</t>
+  </si>
+  <si>
+    <t>default_activate</t>
+  </si>
+  <si>
+    <t>ОПУ_Видеорегистратор</t>
+  </si>
+  <si>
+    <t>ОРУ110_Указатель_СВ110</t>
+  </si>
+  <si>
+    <t>switch value to</t>
+  </si>
+  <si>
+    <t>ОРУ110_СР-1-100</t>
+  </si>
+  <si>
+    <t>Подойти к СР-2 110. Проверить включенное состояние СР-2 110.</t>
+  </si>
+  <si>
+    <t>ОРУ110_СР-2-100</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_СВ110</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ110_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Амперметр_СВ110</t>
+  </si>
+  <si>
+    <t>check voltage</t>
+  </si>
+  <si>
+    <t>change value to</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ110_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Ключ_В110</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Плакат_В110</t>
+  </si>
+  <si>
+    <t>put a sign</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Плакат_В110</t>
+  </si>
+  <si>
+    <t>ОПУ_4Р_Ключ</t>
+  </si>
+  <si>
+    <t>сheck integrity</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>ОРУ110_РТН-2-110</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Ключ_РТН-2-110</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_РТН-2-110_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Плакат_РТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_РП-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Автомат_РТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_РТН-2-110</t>
+  </si>
+  <si>
+    <t>put a block</t>
+  </si>
+  <si>
+    <t>roll out</t>
+  </si>
+  <si>
+    <t>ЗРУ6_Дверь</t>
+  </si>
+  <si>
+    <t>door interaction</t>
+  </si>
+  <si>
+    <t>ОРУ110_РПГ110</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_Автомат_6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_В6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_ШР6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_КРУН-6-ПГ</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Ключ_СВ110</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_В110_ЗелёнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОРУ110_Указатель_В110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_В110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Сигнал</t>
+  </si>
+  <si>
+    <t>ОРУ110_Автомат_Звезды_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_Автомат_Звезды_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Автомат_Треугольника_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_Треугольника_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Автомат_Звезды_Учёта_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_Автомат_Звезды_Учёта_ТН-2-110</t>
+  </si>
+  <si>
+    <t>На привод рубильника звезды РЗА ТН-2 110 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Звезды_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_Звезды_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Звезды_Выключатель_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Треугольника_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Треугольника_Выключатель_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Автомат_Звезды_Учёта_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Рубильник_Звезды_Учёта_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_Звезды_Учёта_ТН-2-110</t>
+  </si>
+  <si>
+    <t>ОРУ110_ЛР110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_ЛР110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_ЛР110_Алексеевская_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Плакат_ЛР110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_ЛР110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_110кВ_2секция</t>
+  </si>
+  <si>
+    <t>ОРУ110_ЛР110_Линия</t>
+  </si>
+  <si>
+    <t>ОРУ110_ЛР110_Автомат_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_БлокировочныйКлюч_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_ЛР110_Алексеевская_Выключатель</t>
+  </si>
+  <si>
+    <t>ОРУ110_Плакат_ЛР110_Заземлено</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_В6Т2</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_В6Т2_Автоматы</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>РУ6_яч18_Тележка_В6Т2</t>
+  </si>
+  <si>
+    <t>ОРУ110_ЗНЛ_ЛР110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_РП-2-110_ЗНШ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +641,66 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +716,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,15 +724,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,21 +1062,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,16 +1084,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +1101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +1120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -504,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -515,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -544,25 +1179,1800 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7E95B-9464-4CBF-82F3-843C20175B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E063E-1CE8-43A5-BBBA-30AA7E29F73F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="C54" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="C57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="C63" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="C71" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="C72" t="s">
+        <v>187</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="C84" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="C91" t="s">
+        <v>150</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
+        <v>149</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>151</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шаблоны/Scenar7.xlsx
+++ b/Шаблоны/Scenar7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="195">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -469,18 +469,9 @@
     <t>door interaction</t>
   </si>
   <si>
-    <t>ОРУ110_РПГ110</t>
-  </si>
-  <si>
-    <t>КРУН-6-ПГ_6УПГ</t>
-  </si>
-  <si>
     <t>КРУН-6-ПГ_Автомат_6УПГ</t>
   </si>
   <si>
-    <t>КРУН-6-ПГ_В6УПГ</t>
-  </si>
-  <si>
     <t>КРУН-6-ПГ_ШР6УПГ</t>
   </si>
   <si>
@@ -599,6 +590,30 @@
   </si>
   <si>
     <t>ОРУ110_РП-2-110_ЗНШ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_Общий</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_ЗНВ_ШР6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_ЗНВ_В6УПГ</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_В6УПГ_Указатель</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_В6УПГ_Выключатель</t>
+  </si>
+  <si>
+    <t>КРУН-6-ПГ_ШР6УПГ_Выключатель</t>
+  </si>
+  <si>
+    <t>ОРУ110_РПГ110_Алексеевская</t>
+  </si>
+  <si>
+    <t>ОРУ110_РПГ110_Выклюяатель</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,6 +713,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1090,7 +1105,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45490</v>
+        <v>45491</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1379,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>118</v>
@@ -1479,7 +1494,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>115</v>
@@ -1513,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>126</v>
@@ -1533,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>118</v>
@@ -1590,7 +1605,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>115</v>
@@ -1607,7 +1622,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>133</v>
@@ -1624,7 +1639,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>134</v>
@@ -1641,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D23" s="17" t="s">
         <v>118</v>
@@ -1661,7 +1676,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>130</v>
@@ -1678,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>118</v>
@@ -1698,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>130</v>
@@ -1715,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>118</v>
@@ -1735,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>130</v>
@@ -1752,7 +1767,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>118</v>
@@ -1772,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>126</v>
@@ -1792,13 +1807,13 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D31" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>114</v>
@@ -1809,7 +1824,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D32" s="17" t="s">
         <v>118</v>
@@ -1829,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>126</v>
@@ -1849,7 +1864,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>130</v>
@@ -1866,7 +1881,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D35" s="17" t="s">
         <v>118</v>
@@ -1886,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>126</v>
@@ -1906,7 +1921,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D37" s="17" t="s">
         <v>130</v>
@@ -1943,7 +1958,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>126</v>
@@ -1963,7 +1978,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D40" s="17" t="s">
         <v>126</v>
@@ -1983,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D41" s="17" t="s">
         <v>118</v>
@@ -2003,7 +2018,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>126</v>
@@ -2023,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>130</v>
@@ -2097,7 +2112,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>126</v>
@@ -2157,7 +2172,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>118</v>
@@ -2177,7 +2192,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>130</v>
@@ -2231,7 +2246,7 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>133</v>
@@ -2248,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>134</v>
@@ -2265,7 +2280,7 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D56" s="17" t="s">
         <v>125</v>
@@ -2282,7 +2297,7 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>125</v>
@@ -2299,7 +2314,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>126</v>
@@ -2319,7 +2334,7 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>142</v>
@@ -2336,7 +2351,7 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D60" s="19" t="s">
         <v>118</v>
@@ -2356,7 +2371,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>126</v>
@@ -2376,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>130</v>
@@ -2393,7 +2408,7 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>133</v>
@@ -2410,7 +2425,7 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>134</v>
@@ -2427,7 +2442,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>142</v>
@@ -2444,7 +2459,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D66" s="19" t="s">
         <v>118</v>
@@ -2464,7 +2479,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>126</v>
@@ -2484,7 +2499,7 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>115</v>
@@ -2501,7 +2516,7 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>115</v>
@@ -2518,7 +2533,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>133</v>
@@ -2535,7 +2550,7 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>134</v>
@@ -2552,7 +2567,7 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>143</v>
@@ -2586,7 +2601,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D74" s="19" t="s">
         <v>126</v>
@@ -2606,7 +2621,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>126</v>
@@ -2625,7 +2640,7 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>135</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -2666,7 +2681,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D78" s="19" t="s">
         <v>126</v>
@@ -2686,7 +2701,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>133</v>
@@ -2703,7 +2718,7 @@
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>134</v>
@@ -2719,11 +2734,14 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>146</v>
+      <c r="C81" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>97</v>
@@ -2737,7 +2755,7 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>118</v>
@@ -2753,11 +2771,14 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="C83" s="18" t="s">
-        <v>146</v>
+      <c r="C83" s="22" t="s">
+        <v>193</v>
       </c>
       <c r="D83" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>99</v>
@@ -2771,10 +2792,13 @@
         <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D84" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>100</v>
@@ -2788,10 +2812,13 @@
         <v>84</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D85" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>101</v>
@@ -2805,10 +2832,13 @@
         <v>85</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="D86" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>102</v>
@@ -2822,10 +2852,13 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D87" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>103</v>
@@ -2839,7 +2872,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D88" s="19" t="s">
         <v>118</v>
@@ -2856,7 +2889,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D89" s="16" t="s">
         <v>133</v>
@@ -2873,7 +2906,7 @@
         <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D90" s="16" t="s">
         <v>134</v>
@@ -2890,10 +2923,13 @@
         <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="D91" s="19" t="s">
         <v>118</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>105</v>
@@ -2906,11 +2942,14 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="C92" t="s">
-        <v>150</v>
+      <c r="C92" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="D92" s="19" t="s">
         <v>126</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>106</v>
@@ -2924,10 +2963,13 @@
         <v>92</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="D93" s="19" t="s">
         <v>118</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>107</v>
@@ -2941,10 +2983,10 @@
         <v>93</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="D94" s="19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>108</v>
@@ -2958,7 +3000,7 @@
         <v>94</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D95" s="10" t="s">
         <v>145</v>

--- a/Шаблоны/Scenar7.xlsx
+++ b/Шаблоны/Scenar7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Gerasimovskaya_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -613,7 +613,7 @@
     <t>ОРУ110_РПГ110_Алексеевская</t>
   </si>
   <si>
-    <t>ОРУ110_РПГ110_Выклюяатель</t>
+    <t>ОРУ110_РПГ110_Выключатель</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45491</v>
+        <v>45511</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Шаблоны/Scenar7.xlsx
+++ b/Шаблоны/Scenar7.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45511</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Шаблоны/Scenar7.xlsx
+++ b/Шаблоны/Scenar7.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -620,6 +620,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -798,6 +801,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1105,7 +1109,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45547</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1195,12 +1199,882 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B287"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B287"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="23"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="23"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="23"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="23"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="23"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="23"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="23"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="23"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="23"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="23"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="23"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="23"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="23"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="23"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="23"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="23"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="23"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="23"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="23"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="23"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="23"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="23"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="23"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="23"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="23"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="23"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="23"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="23"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="23"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="23"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="23"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="23"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="23"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="23"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="23"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="23"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="23"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="23"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="23"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="23"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="23"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="23"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="23"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="23"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="23"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="23"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="23"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="23"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="23"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="23"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="23"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="23"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="23"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="23"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="23"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="23"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="23"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="23"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="23"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="23"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="23"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="23"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="23"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="23"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="23"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="23"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="23"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="23"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="23"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="23"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="23"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="23"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="23"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="23"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="23"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="23"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="23"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="23"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="23"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="23"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="23"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="23"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="23"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="23"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="23"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="23"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="23"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="23"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="23"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="23"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="23"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="23"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="23"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="23"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="23"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="23"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="23"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="23"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="23"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="23"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="23"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="23"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="23"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="23"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="23"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="23"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="23"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="23"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="23"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="23"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="23"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="23"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="23"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="23"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="23"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="23"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="23"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="23"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="23"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="23"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="23"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="23"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="23"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="23"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="23"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="23"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B156" s="23"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="23"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="23"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B159" s="23"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B160" s="23"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B161" s="23"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B162" s="23"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B163" s="23"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B164" s="23"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B165" s="23"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B166" s="23"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="23"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B168" s="23"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B169" s="23"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B170" s="23"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B171" s="23"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="23"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" s="23"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" s="23"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" s="23"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" s="23"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="23"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" s="23"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" s="23"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" s="23"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="23"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" s="23"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" s="23"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="23"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="23"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="23"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="23"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" s="23"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" s="23"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" s="23"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="23"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" s="23"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="23"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B194" s="23"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B195" s="23"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="23"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B197" s="23"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="23"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B199" s="23"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="23"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="23"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="23"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="23"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="23"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="23"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="23"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B207" s="23"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B208" s="23"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="23"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="23"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="23"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="23"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="23"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="23"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="23"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="23"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="23"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="23"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="23"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="23"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="23"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="23"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="23"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="23"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="23"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="23"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="23"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="23"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="23"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="23"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="23"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="23"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="23"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="23"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="23"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="23"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="23"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="23"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="23"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="23"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="23"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="23"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="23"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="23"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="23"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="23"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="23"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="23"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="23"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="23"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="23"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="23"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="23"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="23"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="23"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="23"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="23"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="23"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="23"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="23"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="23"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="23"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="23"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="23"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="23"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="23"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="23"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="23"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="23"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="23"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="23"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="23"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="23"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="23"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="23"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="23"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="23"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="23"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="23"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="23"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="23"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="23"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="23"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="23"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="23"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="23"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="23"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1209,7 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
